--- a/script_master_data/ficherosExcelOrigen/DED-BackStage_Adopcion IA_v1a.xlsx
+++ b/script_master_data/ficherosExcelOrigen/DED-BackStage_Adopcion IA_v1a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6003305\Documents\tarea\estimacionIA_jdk21\script_master_data_beltran\ficherosExcelOrigen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6003305\Documents\tarea\estimacionIA_jdk21\script_master_data\ficherosExcelOrigen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DF6A2A-6986-4309-8517-3E338AD308E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B81D212-67F4-4FC9-9B8C-B44A69F021D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -2541,6 +2541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:BR192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -8139,7 +8140,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="55" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
       <c r="C55" s="165"/>
       <c r="D55" s="10"/>
@@ -8184,7 +8185,7 @@
       <c r="AQ55" s="28"/>
       <c r="AR55" s="28"/>
     </row>
-    <row r="56" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="165"/>
       <c r="D56" s="10"/>
@@ -8229,7 +8230,7 @@
       <c r="AQ56" s="28"/>
       <c r="AR56" s="28"/>
     </row>
-    <row r="57" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>
       <c r="C57" s="165"/>
       <c r="D57" s="10"/>
@@ -8274,7 +8275,7 @@
       <c r="AQ57" s="28"/>
       <c r="AR57" s="28"/>
     </row>
-    <row r="58" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="9"/>
       <c r="C58" s="165"/>
       <c r="D58" s="10"/>
@@ -8319,7 +8320,7 @@
       <c r="AQ58" s="28"/>
       <c r="AR58" s="28"/>
     </row>
-    <row r="59" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="165"/>
       <c r="D59" s="10"/>
@@ -8364,7 +8365,7 @@
       <c r="AQ59" s="28"/>
       <c r="AR59" s="28"/>
     </row>
-    <row r="60" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="165"/>
       <c r="D60" s="10"/>
@@ -8409,7 +8410,7 @@
       <c r="AQ60" s="28"/>
       <c r="AR60" s="28"/>
     </row>
-    <row r="61" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="9"/>
       <c r="C61" s="165"/>
       <c r="D61" s="10"/>
@@ -8454,7 +8455,7 @@
       <c r="AQ61" s="28"/>
       <c r="AR61" s="28"/>
     </row>
-    <row r="62" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
       <c r="C62" s="165"/>
       <c r="D62" s="10"/>
@@ -8499,7 +8500,7 @@
       <c r="AQ62" s="28"/>
       <c r="AR62" s="28"/>
     </row>
-    <row r="63" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
       <c r="C63" s="165"/>
       <c r="D63" s="10"/>
@@ -8544,7 +8545,7 @@
       <c r="AQ63" s="28"/>
       <c r="AR63" s="28"/>
     </row>
-    <row r="64" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64" s="165"/>
       <c r="D64" s="10"/>
@@ -8589,7 +8590,7 @@
       <c r="AQ64" s="28"/>
       <c r="AR64" s="28"/>
     </row>
-    <row r="65" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
       <c r="C65" s="165"/>
       <c r="D65" s="10"/>
@@ -8634,7 +8635,7 @@
       <c r="AQ65" s="28"/>
       <c r="AR65" s="28"/>
     </row>
-    <row r="66" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
       <c r="C66" s="165"/>
       <c r="D66" s="10"/>
@@ -8679,7 +8680,7 @@
       <c r="AQ66" s="28"/>
       <c r="AR66" s="28"/>
     </row>
-    <row r="67" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="9"/>
       <c r="C67" s="165"/>
       <c r="D67" s="10"/>
@@ -8724,7 +8725,7 @@
       <c r="AQ67" s="28"/>
       <c r="AR67" s="28"/>
     </row>
-    <row r="68" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
       <c r="C68" s="165"/>
       <c r="D68" s="10"/>
@@ -8769,7 +8770,7 @@
       <c r="AQ68" s="28"/>
       <c r="AR68" s="28"/>
     </row>
-    <row r="69" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
       <c r="C69" s="165"/>
       <c r="D69" s="10"/>
@@ -8814,7 +8815,7 @@
       <c r="AQ69" s="28"/>
       <c r="AR69" s="28"/>
     </row>
-    <row r="70" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="165"/>
       <c r="D70" s="10"/>
@@ -8859,7 +8860,7 @@
       <c r="AQ70" s="28"/>
       <c r="AR70" s="28"/>
     </row>
-    <row r="71" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
       <c r="C71" s="165"/>
       <c r="D71" s="10"/>
@@ -8904,7 +8905,7 @@
       <c r="AQ71" s="28"/>
       <c r="AR71" s="28"/>
     </row>
-    <row r="72" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72" s="165"/>
       <c r="D72" s="10"/>
@@ -8943,7 +8944,7 @@
       <c r="AQ72" s="28"/>
       <c r="AR72" s="28"/>
     </row>
-    <row r="73" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="165"/>
       <c r="D73" s="10"/>
@@ -8988,7 +8989,7 @@
       <c r="AQ73" s="28"/>
       <c r="AR73" s="28"/>
     </row>
-    <row r="74" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="165"/>
       <c r="D74" s="10"/>
@@ -9033,7 +9034,7 @@
       <c r="AQ74" s="28"/>
       <c r="AR74" s="28"/>
     </row>
-    <row r="75" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="165"/>
       <c r="D75" s="10"/>
@@ -9078,7 +9079,7 @@
       <c r="AQ75" s="28"/>
       <c r="AR75" s="28"/>
     </row>
-    <row r="76" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="165"/>
       <c r="D76" s="10"/>
@@ -9123,7 +9124,7 @@
       <c r="AQ76" s="28"/>
       <c r="AR76" s="28"/>
     </row>
-    <row r="77" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="165"/>
       <c r="D77" s="10"/>
@@ -9168,7 +9169,7 @@
       <c r="AQ77" s="28"/>
       <c r="AR77" s="28"/>
     </row>
-    <row r="78" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="165"/>
       <c r="D78" s="10"/>
@@ -9213,7 +9214,7 @@
       <c r="AQ78" s="28"/>
       <c r="AR78" s="28"/>
     </row>
-    <row r="79" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="165"/>
       <c r="D79" s="10"/>
@@ -9258,7 +9259,7 @@
       <c r="AQ79" s="28"/>
       <c r="AR79" s="28"/>
     </row>
-    <row r="80" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="165"/>
       <c r="D80" s="10"/>
@@ -9303,7 +9304,7 @@
       <c r="AQ80" s="28"/>
       <c r="AR80" s="28"/>
     </row>
-    <row r="81" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="165"/>
       <c r="D81" s="10"/>
@@ -9348,7 +9349,7 @@
       <c r="AQ81" s="28"/>
       <c r="AR81" s="28"/>
     </row>
-    <row r="82" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="165"/>
       <c r="D82" s="10"/>
@@ -9393,7 +9394,7 @@
       <c r="AQ82" s="28"/>
       <c r="AR82" s="28"/>
     </row>
-    <row r="83" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="165"/>
       <c r="D83" s="10"/>
@@ -9438,7 +9439,7 @@
       <c r="AQ83" s="28"/>
       <c r="AR83" s="28"/>
     </row>
-    <row r="84" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="165"/>
       <c r="D84" s="10"/>
@@ -9483,7 +9484,7 @@
       <c r="AQ84" s="28"/>
       <c r="AR84" s="28"/>
     </row>
-    <row r="85" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="165"/>
       <c r="D85" s="10"/>
@@ -9528,7 +9529,7 @@
       <c r="AQ85" s="28"/>
       <c r="AR85" s="28"/>
     </row>
-    <row r="86" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="165"/>
       <c r="D86" s="10"/>
@@ -9573,7 +9574,7 @@
       <c r="AQ86" s="28"/>
       <c r="AR86" s="28"/>
     </row>
-    <row r="87" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="165"/>
       <c r="D87" s="10"/>
@@ -9618,7 +9619,7 @@
       <c r="AQ87" s="28"/>
       <c r="AR87" s="28"/>
     </row>
-    <row r="88" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="165"/>
       <c r="D88" s="10"/>
@@ -9663,7 +9664,7 @@
       <c r="AQ88" s="28"/>
       <c r="AR88" s="28"/>
     </row>
-    <row r="89" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="165"/>
       <c r="D89" s="10"/>
@@ -9708,7 +9709,7 @@
       <c r="AQ89" s="28"/>
       <c r="AR89" s="28"/>
     </row>
-    <row r="90" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="165"/>
       <c r="D90" s="10"/>
@@ -9753,7 +9754,7 @@
       <c r="AQ90" s="28"/>
       <c r="AR90" s="28"/>
     </row>
-    <row r="91" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="165"/>
       <c r="D91" s="10"/>
@@ -9797,7 +9798,7 @@
       <c r="AQ91" s="28"/>
       <c r="AR91" s="28"/>
     </row>
-    <row r="92" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="9"/>
       <c r="C92" s="165"/>
       <c r="D92" s="10"/>
@@ -9842,7 +9843,7 @@
       <c r="AQ92" s="28"/>
       <c r="AR92" s="28"/>
     </row>
-    <row r="93" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="165"/>
       <c r="D93" s="10"/>
@@ -9887,7 +9888,7 @@
       <c r="AQ93" s="28"/>
       <c r="AR93" s="28"/>
     </row>
-    <row r="94" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="165"/>
       <c r="D94" s="10"/>
@@ -9932,7 +9933,7 @@
       <c r="AQ94" s="28"/>
       <c r="AR94" s="28"/>
     </row>
-    <row r="95" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="9"/>
       <c r="C95" s="165"/>
       <c r="D95" s="10"/>
@@ -9977,7 +9978,7 @@
       <c r="AQ95" s="28"/>
       <c r="AR95" s="28"/>
     </row>
-    <row r="96" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
       <c r="C96" s="165"/>
       <c r="D96" s="10"/>
@@ -10022,7 +10023,7 @@
       <c r="AQ96" s="28"/>
       <c r="AR96" s="28"/>
     </row>
-    <row r="97" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:44" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="165"/>
       <c r="D97" s="10"/>
@@ -10067,7 +10068,7 @@
       <c r="AQ97" s="28"/>
       <c r="AR97" s="28"/>
     </row>
-    <row r="98" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="165"/>
       <c r="D98" s="10"/>
@@ -10112,7 +10113,7 @@
       <c r="AQ98" s="28"/>
       <c r="AR98" s="28"/>
     </row>
-    <row r="99" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="165"/>
       <c r="D99" s="10"/>
@@ -10157,7 +10158,7 @@
       <c r="AQ99" s="28"/>
       <c r="AR99" s="28"/>
     </row>
-    <row r="100" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="165"/>
       <c r="D100" s="10"/>
@@ -10202,7 +10203,7 @@
       <c r="AQ100" s="28"/>
       <c r="AR100" s="28"/>
     </row>
-    <row r="101" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="165"/>
       <c r="D101" s="10"/>
@@ -10247,7 +10248,7 @@
       <c r="AQ101" s="28"/>
       <c r="AR101" s="28"/>
     </row>
-    <row r="102" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="165"/>
       <c r="D102" s="10"/>
@@ -10292,7 +10293,7 @@
       <c r="AQ102" s="28"/>
       <c r="AR102" s="28"/>
     </row>
-    <row r="103" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="165"/>
       <c r="D103" s="10"/>
@@ -10337,7 +10338,7 @@
       <c r="AQ103" s="28"/>
       <c r="AR103" s="28"/>
     </row>
-    <row r="104" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="165"/>
       <c r="D104" s="10"/>
@@ -10382,7 +10383,7 @@
       <c r="AQ104" s="28"/>
       <c r="AR104" s="28"/>
     </row>
-    <row r="105" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="165"/>
       <c r="D105" s="10"/>
@@ -10427,7 +10428,7 @@
       <c r="AQ105" s="28"/>
       <c r="AR105" s="28"/>
     </row>
-    <row r="106" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="165"/>
       <c r="D106" s="10"/>
@@ -10472,7 +10473,7 @@
       <c r="AQ106" s="28"/>
       <c r="AR106" s="28"/>
     </row>
-    <row r="107" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="165"/>
       <c r="D107" s="10"/>
@@ -10517,7 +10518,7 @@
       <c r="AQ107" s="28"/>
       <c r="AR107" s="28"/>
     </row>
-    <row r="108" spans="2:44" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:44" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="165"/>
       <c r="D108" s="10"/>
@@ -10562,7 +10563,7 @@
       <c r="AQ108" s="28"/>
       <c r="AR108" s="28"/>
     </row>
-    <row r="109" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="165"/>
       <c r="D109" s="10"/>
@@ -10607,7 +10608,7 @@
       <c r="AQ109" s="28"/>
       <c r="AR109" s="28"/>
     </row>
-    <row r="110" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="165"/>
       <c r="D110" s="10"/>
@@ -10652,7 +10653,7 @@
       <c r="AQ110" s="28"/>
       <c r="AR110" s="28"/>
     </row>
-    <row r="111" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="165"/>
       <c r="D111" s="10"/>
@@ -10697,7 +10698,7 @@
       <c r="AQ111" s="28"/>
       <c r="AR111" s="28"/>
     </row>
-    <row r="112" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="165"/>
       <c r="D112" s="10"/>
@@ -10742,7 +10743,7 @@
       <c r="AQ112" s="28"/>
       <c r="AR112" s="28"/>
     </row>
-    <row r="113" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="165"/>
       <c r="D113" s="10"/>
@@ -10787,7 +10788,7 @@
       <c r="AQ113" s="28"/>
       <c r="AR113" s="28"/>
     </row>
-    <row r="114" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="165"/>
       <c r="D114" s="10"/>
@@ -10832,7 +10833,7 @@
       <c r="AQ114" s="28"/>
       <c r="AR114" s="28"/>
     </row>
-    <row r="115" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="165"/>
       <c r="D115" s="10"/>
@@ -10877,7 +10878,7 @@
       <c r="AQ115" s="28"/>
       <c r="AR115" s="28"/>
     </row>
-    <row r="116" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="165"/>
       <c r="D116" s="10"/>
@@ -10922,7 +10923,7 @@
       <c r="AQ116" s="28"/>
       <c r="AR116" s="28"/>
     </row>
-    <row r="117" spans="2:70" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:70" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="165"/>
       <c r="D117" s="10"/>
@@ -10967,7 +10968,7 @@
       <c r="AQ117" s="28"/>
       <c r="AR117" s="28"/>
     </row>
-    <row r="118" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="165"/>
       <c r="D118" s="10"/>
@@ -11012,7 +11013,7 @@
       <c r="AQ118" s="28"/>
       <c r="AR118" s="28"/>
     </row>
-    <row r="119" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="165"/>
       <c r="D119" s="10"/>
@@ -11083,7 +11084,7 @@
       <c r="BQ119" s="106"/>
       <c r="BR119" s="106"/>
     </row>
-    <row r="120" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="165"/>
       <c r="D120" s="10"/>
@@ -11128,7 +11129,7 @@
       <c r="AQ120" s="28"/>
       <c r="AR120" s="28"/>
     </row>
-    <row r="121" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="165"/>
       <c r="D121" s="10"/>
@@ -11173,7 +11174,7 @@
       <c r="AQ121" s="28"/>
       <c r="AR121" s="28"/>
     </row>
-    <row r="122" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="165"/>
       <c r="D122" s="10"/>
@@ -11218,7 +11219,7 @@
       <c r="AQ122" s="28"/>
       <c r="AR122" s="28"/>
     </row>
-    <row r="123" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="165"/>
       <c r="D123" s="10"/>
@@ -11263,7 +11264,7 @@
       <c r="AQ123" s="28"/>
       <c r="AR123" s="28"/>
     </row>
-    <row r="124" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="165"/>
       <c r="D124" s="10"/>
@@ -11308,7 +11309,7 @@
       <c r="AQ124" s="28"/>
       <c r="AR124" s="28"/>
     </row>
-    <row r="125" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="165"/>
       <c r="D125" s="10"/>
@@ -11353,7 +11354,7 @@
       <c r="AQ125" s="28"/>
       <c r="AR125" s="28"/>
     </row>
-    <row r="126" spans="2:70" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:70" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="165"/>
       <c r="D126" s="10"/>
@@ -11398,7 +11399,7 @@
       <c r="AQ126" s="28"/>
       <c r="AR126" s="28"/>
     </row>
-    <row r="127" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="165"/>
       <c r="D127" s="10"/>
@@ -11443,7 +11444,7 @@
       <c r="AQ127" s="28"/>
       <c r="AR127" s="28"/>
     </row>
-    <row r="128" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="165"/>
       <c r="D128" s="10"/>
@@ -11488,7 +11489,7 @@
       <c r="AQ128" s="28"/>
       <c r="AR128" s="28"/>
     </row>
-    <row r="129" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="165"/>
       <c r="D129" s="10"/>
@@ -11533,7 +11534,7 @@
       <c r="AQ129" s="28"/>
       <c r="AR129" s="28"/>
     </row>
-    <row r="130" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="165"/>
       <c r="D130" s="10"/>
@@ -11578,7 +11579,7 @@
       <c r="AQ130" s="28"/>
       <c r="AR130" s="28"/>
     </row>
-    <row r="131" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="165"/>
       <c r="D131" s="10"/>
@@ -11623,7 +11624,7 @@
       <c r="AQ131" s="28"/>
       <c r="AR131" s="28"/>
     </row>
-    <row r="132" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="165"/>
       <c r="D132" s="10"/>
@@ -11668,7 +11669,7 @@
       <c r="AQ132" s="28"/>
       <c r="AR132" s="28"/>
     </row>
-    <row r="133" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="165"/>
       <c r="D133" s="10"/>
@@ -11713,7 +11714,7 @@
       <c r="AQ133" s="28"/>
       <c r="AR133" s="28"/>
     </row>
-    <row r="134" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="165"/>
       <c r="D134" s="10"/>
@@ -11758,7 +11759,7 @@
       <c r="AQ134" s="28"/>
       <c r="AR134" s="28"/>
     </row>
-    <row r="135" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="165"/>
       <c r="D135" s="10"/>
@@ -11803,7 +11804,7 @@
       <c r="AQ135" s="28"/>
       <c r="AR135" s="28"/>
     </row>
-    <row r="136" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="165"/>
       <c r="D136" s="10"/>
@@ -11848,7 +11849,7 @@
       <c r="AQ136" s="28"/>
       <c r="AR136" s="28"/>
     </row>
-    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="165"/>
       <c r="D137" s="10"/>
@@ -11893,7 +11894,7 @@
       <c r="AQ137" s="28"/>
       <c r="AR137" s="28"/>
     </row>
-    <row r="138" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="165"/>
       <c r="D138" s="10"/>
@@ -11938,7 +11939,7 @@
       <c r="AQ138" s="28"/>
       <c r="AR138" s="28"/>
     </row>
-    <row r="139" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:44" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="165"/>
       <c r="D139" s="10"/>
@@ -11983,7 +11984,7 @@
       <c r="AQ139" s="28"/>
       <c r="AR139" s="28"/>
     </row>
-    <row r="140" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="165"/>
       <c r="D140" s="10"/>
@@ -12028,7 +12029,7 @@
       <c r="AQ140" s="28"/>
       <c r="AR140" s="28"/>
     </row>
-    <row r="141" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="165"/>
       <c r="D141" s="10"/>
@@ -12073,7 +12074,7 @@
       <c r="AQ141" s="28"/>
       <c r="AR141" s="28"/>
     </row>
-    <row r="142" spans="2:44" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:44" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="165"/>
       <c r="D142" s="10"/>
@@ -12118,7 +12119,7 @@
       <c r="AQ142" s="28"/>
       <c r="AR142" s="28"/>
     </row>
-    <row r="143" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:44" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="165"/>
       <c r="D143" s="10"/>
@@ -12163,7 +12164,7 @@
       <c r="AQ143" s="28"/>
       <c r="AR143" s="28"/>
     </row>
-    <row r="144" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="165"/>
       <c r="D144" s="10"/>
@@ -12208,7 +12209,7 @@
       <c r="AQ144" s="28"/>
       <c r="AR144" s="28"/>
     </row>
-    <row r="145" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="165"/>
       <c r="D145" s="10"/>
@@ -12253,7 +12254,7 @@
       <c r="AQ145" s="28"/>
       <c r="AR145" s="28"/>
     </row>
-    <row r="146" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="165"/>
       <c r="D146" s="10"/>
@@ -12298,7 +12299,7 @@
       <c r="AQ146" s="28"/>
       <c r="AR146" s="28"/>
     </row>
-    <row r="147" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="165"/>
       <c r="D147" s="10"/>
@@ -12343,7 +12344,7 @@
       <c r="AQ147" s="28"/>
       <c r="AR147" s="28"/>
     </row>
-    <row r="148" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="165"/>
       <c r="D148" s="10"/>
@@ -12388,7 +12389,7 @@
       <c r="AQ148" s="28"/>
       <c r="AR148" s="28"/>
     </row>
-    <row r="149" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="165"/>
       <c r="D149" s="10"/>
@@ -12433,7 +12434,7 @@
       <c r="AQ149" s="28"/>
       <c r="AR149" s="28"/>
     </row>
-    <row r="150" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="165"/>
       <c r="D150" s="10"/>
@@ -12478,7 +12479,7 @@
       <c r="AQ150" s="28"/>
       <c r="AR150" s="28"/>
     </row>
-    <row r="151" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="165"/>
       <c r="D151" s="10"/>
@@ -12523,7 +12524,7 @@
       <c r="AQ151" s="28"/>
       <c r="AR151" s="28"/>
     </row>
-    <row r="152" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="165"/>
       <c r="D152" s="10"/>
@@ -12568,7 +12569,7 @@
       <c r="AQ152" s="28"/>
       <c r="AR152" s="28"/>
     </row>
-    <row r="153" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="165"/>
       <c r="D153" s="10"/>
@@ -12613,7 +12614,7 @@
       <c r="AQ153" s="28"/>
       <c r="AR153" s="28"/>
     </row>
-    <row r="154" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="165"/>
       <c r="D154" s="10"/>
@@ -12658,7 +12659,7 @@
       <c r="AQ154" s="28"/>
       <c r="AR154" s="28"/>
     </row>
-    <row r="155" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="165"/>
       <c r="D155" s="10"/>
@@ -12703,7 +12704,7 @@
       <c r="AQ155" s="28"/>
       <c r="AR155" s="28"/>
     </row>
-    <row r="156" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="165"/>
       <c r="D156" s="10"/>
@@ -12748,7 +12749,7 @@
       <c r="AQ156" s="28"/>
       <c r="AR156" s="28"/>
     </row>
-    <row r="157" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="165"/>
       <c r="D157" s="10"/>
@@ -12793,7 +12794,7 @@
       <c r="AQ157" s="28"/>
       <c r="AR157" s="28"/>
     </row>
-    <row r="158" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="165"/>
       <c r="D158" s="10"/>
@@ -12838,7 +12839,7 @@
       <c r="AQ158" s="28"/>
       <c r="AR158" s="28"/>
     </row>
-    <row r="159" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="165"/>
       <c r="D159" s="10"/>
@@ -12883,7 +12884,7 @@
       <c r="AQ159" s="28"/>
       <c r="AR159" s="28"/>
     </row>
-    <row r="160" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="165"/>
       <c r="D160" s="10"/>
@@ -12928,7 +12929,7 @@
       <c r="AQ160" s="28"/>
       <c r="AR160" s="28"/>
     </row>
-    <row r="161" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="165"/>
       <c r="D161" s="10"/>
@@ -12973,7 +12974,7 @@
       <c r="AQ161" s="28"/>
       <c r="AR161" s="28"/>
     </row>
-    <row r="162" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="165"/>
       <c r="D162" s="10"/>
@@ -13018,7 +13019,7 @@
       <c r="AQ162" s="28"/>
       <c r="AR162" s="28"/>
     </row>
-    <row r="163" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="165"/>
       <c r="D163" s="10"/>
@@ -13063,7 +13064,7 @@
       <c r="AQ163" s="28"/>
       <c r="AR163" s="28"/>
     </row>
-    <row r="164" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="165"/>
       <c r="D164" s="10"/>
@@ -13108,7 +13109,7 @@
       <c r="AQ164" s="28"/>
       <c r="AR164" s="28"/>
     </row>
-    <row r="165" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="165"/>
       <c r="D165" s="10"/>
@@ -13153,7 +13154,7 @@
       <c r="AQ165" s="28"/>
       <c r="AR165" s="28"/>
     </row>
-    <row r="166" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="165"/>
       <c r="D166" s="10"/>
@@ -13198,7 +13199,7 @@
       <c r="AQ166" s="28"/>
       <c r="AR166" s="28"/>
     </row>
-    <row r="167" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="9"/>
       <c r="C167" s="165"/>
       <c r="D167" s="10"/>
@@ -13243,7 +13244,7 @@
       <c r="AQ167" s="28"/>
       <c r="AR167" s="28"/>
     </row>
-    <row r="168" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="165"/>
       <c r="D168" s="10"/>
@@ -13288,7 +13289,7 @@
       <c r="AQ168" s="28"/>
       <c r="AR168" s="28"/>
     </row>
-    <row r="169" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="9"/>
       <c r="C169" s="165"/>
       <c r="D169" s="10"/>
@@ -13333,7 +13334,7 @@
       <c r="AQ169" s="28"/>
       <c r="AR169" s="28"/>
     </row>
-    <row r="170" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="165"/>
       <c r="D170" s="10"/>
@@ -13378,7 +13379,7 @@
       <c r="AQ170" s="28"/>
       <c r="AR170" s="28"/>
     </row>
-    <row r="171" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
       <c r="C171" s="165"/>
       <c r="D171" s="10"/>
@@ -13423,7 +13424,7 @@
       <c r="AQ171" s="28"/>
       <c r="AR171" s="28"/>
     </row>
-    <row r="172" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="9"/>
       <c r="C172" s="165"/>
       <c r="D172" s="10"/>
@@ -13468,7 +13469,7 @@
       <c r="AQ172" s="28"/>
       <c r="AR172" s="28"/>
     </row>
-    <row r="173" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="9"/>
       <c r="C173" s="165"/>
       <c r="D173" s="10"/>
@@ -13513,7 +13514,7 @@
       <c r="AQ173" s="28"/>
       <c r="AR173" s="28"/>
     </row>
-    <row r="174" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="9"/>
       <c r="C174" s="165"/>
       <c r="D174" s="10"/>
@@ -13631,7 +13632,13 @@
       <c r="AR192" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:AR174" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B5:AR174" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="H38:I141 H144:I174 M38:N174 R38:S174 W38:X174 AB38:AC174 AG38:AH174 AL38:AM118 AM119:AN138 AM140:AN174">
     <cfRule type="expression" dxfId="19" priority="55">
       <formula>AND(G38="S",H38="")</formula>
